--- a/length-data.xlsx
+++ b/length-data.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dropbox\projects\NaNoGenMo\nanogenmo-2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Table 1</t>
   </si>
@@ -79,10 +87,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -96,13 +103,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -243,64 +250,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,26 +317,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -528,7 +594,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -547,7 +613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -577,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -603,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,9 +864,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -817,7 +889,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -836,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,9 +1155,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1099,7 +1177,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1118,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,1050 +1447,996 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:S23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J14:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:19" ht="27.6" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s" s="4">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>136</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>132</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>307</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>298</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>314</v>
       </c>
-      <c r="G3" s="8">
-        <f>AVERAGE(B3:F3)</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G17" si="0">AVERAGE(B3:F3)</f>
         <v>237.4</v>
       </c>
-      <c r="H3" s="8">
-        <f>STDEVP(B3:F3)</f>
-        <v>84.5874695212004</v>
-      </c>
-      <c r="I3" s="8">
-        <f>STANDARDIZE(0,G3,H3)</f>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H17" si="1">STDEVP(B3:F3)</f>
+        <v>84.587469521200362</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I18" si="2">STANDARDIZE(0,G3,H3)</f>
         <v>-2.80656226440844</v>
       </c>
-      <c r="J3" s="8">
-        <f>G3-2*H3</f>
-        <v>68.2250609575992</v>
-      </c>
-      <c r="K3" s="8">
-        <f>G3-H3</f>
-        <v>152.8125304788</v>
-      </c>
-      <c r="L3" s="8">
-        <f>G3+H3</f>
-        <v>321.9874695212</v>
-      </c>
-      <c r="M3" s="8">
-        <f>G3+2*H3</f>
-        <v>406.574939042401</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J18" si="3">G3-2*H3</f>
+        <v>68.225060957599283</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K18" si="4">G3-H3</f>
+        <v>152.81253047879966</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L18" si="5">G3+H3</f>
+        <v>321.98746952120035</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M18" si="6">G3+2*H3</f>
+        <v>406.57493904240073</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>225</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>249</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>295</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>259</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>291</v>
       </c>
-      <c r="G4" s="13">
-        <f>AVERAGE(B4:F4)</f>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
         <v>263.8</v>
       </c>
-      <c r="H4" s="13">
-        <f>STDEVP(B4:F4)</f>
-        <v>26.3089338438486</v>
-      </c>
-      <c r="I4" s="13">
-        <f>STANDARDIZE(0,G4,H4)</f>
-        <v>-10.0270121763859</v>
-      </c>
-      <c r="J4" s="13">
-        <f>G4-2*H4</f>
-        <v>211.182132312303</v>
-      </c>
-      <c r="K4" s="13">
-        <f>G4-H4</f>
-        <v>237.491066156151</v>
-      </c>
-      <c r="L4" s="13">
-        <f>G4+H4</f>
-        <v>290.108933843849</v>
-      </c>
-      <c r="M4" s="13">
-        <f>G4+2*H4</f>
-        <v>316.417867687697</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>26.308933843848557</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="2"/>
+        <v>-10.027012176385877</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="3"/>
+        <v>211.18213231230288</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="4"/>
+        <v>237.49106615615145</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="5"/>
+        <v>290.10893384384855</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" si="6"/>
+        <v>316.41786768769714</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>412</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>184</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>246</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>454</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>356</v>
       </c>
-      <c r="G5" s="13">
-        <f>AVERAGE(B5:F5)</f>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
         <v>330.4</v>
       </c>
-      <c r="H5" s="13">
-        <f>STDEVP(B5:F5)</f>
-        <v>101.140694085022</v>
-      </c>
-      <c r="I5" s="13">
-        <f>STANDARDIZE(0,G5,H5)</f>
-        <v>-3.26673652963322</v>
-      </c>
-      <c r="J5" s="13">
-        <f>G5-2*H5</f>
-        <v>128.118611829956</v>
-      </c>
-      <c r="K5" s="13">
-        <f>G5-H5</f>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>101.14069408502198</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.2667365296332216</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="3"/>
+        <v>128.11861182995602</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="4"/>
         <v>229.259305914978</v>
       </c>
-      <c r="L5" s="13">
-        <f>G5+H5</f>
-        <v>431.540694085022</v>
-      </c>
-      <c r="M5" s="13">
-        <f>G5+2*H5</f>
-        <v>532.681388170044</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="L5" s="12">
+        <f t="shared" si="5"/>
+        <v>431.54069408502198</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="6"/>
+        <v>532.68138817004387</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="10">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>216</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>243</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>330</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>212</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>178</v>
       </c>
-      <c r="G6" s="13">
-        <f>AVERAGE(B6:F6)</f>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
         <v>235.8</v>
       </c>
-      <c r="H6" s="13">
-        <f>STDEVP(B6:F6)</f>
-        <v>51.4291745996375</v>
-      </c>
-      <c r="I6" s="13">
-        <f>STANDARDIZE(0,G6,H6)</f>
-        <v>-4.58494622625466</v>
-      </c>
-      <c r="J6" s="13">
-        <f>G6-2*H6</f>
-        <v>132.941650800725</v>
-      </c>
-      <c r="K6" s="13">
-        <f>G6-H6</f>
-        <v>184.370825400363</v>
-      </c>
-      <c r="L6" s="13">
-        <f>G6+H6</f>
-        <v>287.229174599638</v>
-      </c>
-      <c r="M6" s="13">
-        <f>G6+2*H6</f>
-        <v>338.658349199275</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>51.429174599637513</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.5849462262546599</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="3"/>
+        <v>132.94165080072497</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="4"/>
+        <v>184.37082540036249</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="5"/>
+        <v>287.22917459963753</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="6"/>
+        <v>338.65834919927505</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="10">
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>275</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>274</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>302</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>190</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>342</v>
       </c>
-      <c r="G7" s="13">
-        <f>AVERAGE(B7:F7)</f>
-        <v>276.6</v>
-      </c>
-      <c r="H7" s="13">
-        <f>STDEVP(B7:F7)</f>
-        <v>49.8622101395435</v>
-      </c>
-      <c r="I7" s="13">
-        <f>STANDARDIZE(0,G7,H7)</f>
-        <v>-5.54728719858009</v>
-      </c>
-      <c r="J7" s="13">
-        <f>G7-2*H7</f>
-        <v>176.875579720913</v>
-      </c>
-      <c r="K7" s="13">
-        <f>G7-H7</f>
-        <v>226.737789860457</v>
-      </c>
-      <c r="L7" s="13">
-        <f>G7+H7</f>
-        <v>326.462210139544</v>
-      </c>
-      <c r="M7" s="13">
-        <f>G7+2*H7</f>
-        <v>376.324420279087</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>276.60000000000002</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>49.862210139543549</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="2"/>
+        <v>-5.5472871985800847</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="3"/>
+        <v>176.87557972091292</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="4"/>
+        <v>226.73778986045647</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="5"/>
+        <v>326.46221013954357</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="6"/>
+        <v>376.32442027908712</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="10">
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>305</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>189</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>164</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>369</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>187</v>
       </c>
-      <c r="G8" s="13">
-        <f>AVERAGE(B8:F8)</f>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
         <v>242.8</v>
       </c>
-      <c r="H8" s="13">
-        <f>STDEVP(B8:F8)</f>
-        <v>80.0159984003199</v>
-      </c>
-      <c r="I8" s="13">
-        <f>STANDARDIZE(0,G8,H8)</f>
-        <v>-3.03439318203932</v>
-      </c>
-      <c r="J8" s="13">
-        <f>G8-2*H8</f>
-        <v>82.76800319936019</v>
-      </c>
-      <c r="K8" s="13">
-        <f>G8-H8</f>
-        <v>162.784001599680</v>
-      </c>
-      <c r="L8" s="13">
-        <f>G8+H8</f>
-        <v>322.815998400320</v>
-      </c>
-      <c r="M8" s="13">
-        <f>G8+2*H8</f>
-        <v>402.831996800640</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>80.015998400319916</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.0343931820393215</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="3"/>
+        <v>82.76800319936018</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="4"/>
+        <v>162.7840015996801</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="5"/>
+        <v>322.81599840031993</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="6"/>
+        <v>402.83199680063984</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>336</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>446</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>299</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>626</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>371</v>
       </c>
-      <c r="G9" s="13">
-        <f>AVERAGE(B9:F9)</f>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
         <v>415.6</v>
       </c>
-      <c r="H9" s="13">
-        <f>STDEVP(B9:F9)</f>
-        <v>115.856117663246</v>
-      </c>
-      <c r="I9" s="13">
-        <f>STANDARDIZE(0,G9,H9)</f>
-        <v>-3.58720806792445</v>
-      </c>
-      <c r="J9" s="13">
-        <f>G9-2*H9</f>
-        <v>183.887764673508</v>
-      </c>
-      <c r="K9" s="13">
-        <f>G9-H9</f>
-        <v>299.743882336754</v>
-      </c>
-      <c r="L9" s="13">
-        <f>G9+H9</f>
-        <v>531.456117663246</v>
-      </c>
-      <c r="M9" s="13">
-        <f>G9+2*H9</f>
-        <v>647.312235326492</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>115.85611766324642</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.5872080679244336</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>183.88776467350718</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="4"/>
+        <v>299.74388233675359</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="5"/>
+        <v>531.45611766324646</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="6"/>
+        <v>647.3122353264929</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="10">
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>362</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>495</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>458</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>137</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>762</v>
       </c>
-      <c r="G10" s="13">
-        <f>AVERAGE(B10:F10)</f>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
         <v>442.8</v>
       </c>
-      <c r="H10" s="13">
-        <f>STDEVP(B10:F10)</f>
-        <v>202.428654098178</v>
-      </c>
-      <c r="I10" s="13">
-        <f>STANDARDIZE(0,G10,H10)</f>
-        <v>-2.18743735649817</v>
-      </c>
-      <c r="J10" s="13">
-        <f>G10-2*H10</f>
-        <v>37.942691803644</v>
-      </c>
-      <c r="K10" s="13">
-        <f>G10-H10</f>
-        <v>240.371345901822</v>
-      </c>
-      <c r="L10" s="13">
-        <f>G10+H10</f>
-        <v>645.228654098178</v>
-      </c>
-      <c r="M10" s="13">
-        <f>G10+2*H10</f>
-        <v>847.657308196356</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>202.4286540981785</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.18743735649816</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>37.942691803643015</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
+        <v>240.37134590182151</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="5"/>
+        <v>645.22865409817848</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="6"/>
+        <v>847.65730819635701</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>395</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>482</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>213</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>256</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>393</v>
       </c>
-      <c r="G11" s="13">
-        <f>AVERAGE(B11:F11)</f>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="H11" s="13">
-        <f>STDEVP(B11:F11)</f>
-        <v>98.8724430769261</v>
-      </c>
-      <c r="I11" s="13">
-        <f>STANDARDIZE(0,G11,H11)</f>
-        <v>-3.51766366013025</v>
-      </c>
-      <c r="J11" s="13">
-        <f>G11-2*H11</f>
-        <v>150.055113846148</v>
-      </c>
-      <c r="K11" s="13">
-        <f>G11-H11</f>
-        <v>248.927556923074</v>
-      </c>
-      <c r="L11" s="13">
-        <f>G11+H11</f>
-        <v>446.672443076926</v>
-      </c>
-      <c r="M11" s="13">
-        <f>G11+2*H11</f>
-        <v>545.544886153852</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>98.872443076926146</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.517663660130252</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="3"/>
+        <v>150.05511384614772</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="4"/>
+        <v>248.92755692307387</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="5"/>
+        <v>446.67244307692613</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="6"/>
+        <v>545.5448861538523</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>562</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>195</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>489</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>444</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>485</v>
       </c>
-      <c r="G12" s="13">
-        <f>AVERAGE(B12:F12)</f>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="H12" s="13">
-        <f>STDEVP(B12:F12)</f>
-        <v>125.877718441351</v>
-      </c>
-      <c r="I12" s="13">
-        <f>STANDARDIZE(0,G12,H12)</f>
-        <v>-3.45573470337942</v>
-      </c>
-      <c r="J12" s="13">
-        <f>G12-2*H12</f>
-        <v>183.244563117298</v>
-      </c>
-      <c r="K12" s="13">
-        <f>G12-H12</f>
-        <v>309.122281558649</v>
-      </c>
-      <c r="L12" s="13">
-        <f>G12+H12</f>
-        <v>560.877718441351</v>
-      </c>
-      <c r="M12" s="13">
-        <f>G12+2*H12</f>
-        <v>686.755436882702</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>125.87771844135085</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.4557347033794223</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>183.2445631172983</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="4"/>
+        <v>309.12228155864915</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="5"/>
+        <v>560.87771844135091</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="6"/>
+        <v>686.7554368827017</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>307</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>346</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>460</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>363</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>545</v>
       </c>
-      <c r="G13" s="13">
-        <f>AVERAGE(B13:F13)</f>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
         <v>404.2</v>
       </c>
-      <c r="H13" s="13">
-        <f>STDEVP(B13:F13)</f>
-        <v>86.5688165565407</v>
-      </c>
-      <c r="I13" s="13">
-        <f>STANDARDIZE(0,G13,H13)</f>
-        <v>-4.66911777332667</v>
-      </c>
-      <c r="J13" s="13">
-        <f>G13-2*H13</f>
-        <v>231.062366886919</v>
-      </c>
-      <c r="K13" s="13">
-        <f>G13-H13</f>
-        <v>317.631183443459</v>
-      </c>
-      <c r="L13" s="13">
-        <f>G13+H13</f>
-        <v>490.768816556541</v>
-      </c>
-      <c r="M13" s="13">
-        <f>G13+2*H13</f>
-        <v>577.337633113081</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>86.568816556540725</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.6691177733266658</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>231.06236688691854</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="4"/>
+        <v>317.63118344345924</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="5"/>
+        <v>490.76881655654074</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="6"/>
+        <v>577.33763311308144</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>274</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>518</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>699</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>437</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>409</v>
       </c>
-      <c r="G14" s="13">
-        <f>AVERAGE(B14:F14)</f>
-        <v>467.4</v>
-      </c>
-      <c r="H14" s="13">
-        <f>STDEVP(B14:F14)</f>
-        <v>139.955135668542</v>
-      </c>
-      <c r="I14" s="13">
-        <f>STANDARDIZE(0,G14,H14)</f>
-        <v>-3.33964164849907</v>
-      </c>
-      <c r="J14" s="13">
-        <f>G14-2*H14</f>
-        <v>187.489728662916</v>
-      </c>
-      <c r="K14" s="13">
-        <f>G14-H14</f>
-        <v>327.444864331458</v>
-      </c>
-      <c r="L14" s="13">
-        <f>G14+H14</f>
-        <v>607.3551356685419</v>
-      </c>
-      <c r="M14" s="13">
-        <f>G14+2*H14</f>
-        <v>747.310271337084</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11">
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10">
         <v>253</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>424</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>194</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>359</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>74</v>
       </c>
-      <c r="G15" s="13">
-        <f>AVERAGE(B15:F15)</f>
-        <v>260.8</v>
-      </c>
-      <c r="H15" s="13">
-        <f>STDEVP(B15:F15)</f>
-        <v>123.040481143403</v>
-      </c>
-      <c r="I15" s="13">
-        <f>STANDARDIZE(0,G15,H15)</f>
-        <v>-2.11962760204131</v>
-      </c>
-      <c r="J15" s="13">
-        <f>G15-2*H15</f>
-        <v>14.719037713194</v>
-      </c>
-      <c r="K15" s="13">
-        <f>G15-H15</f>
-        <v>137.759518856597</v>
-      </c>
-      <c r="L15" s="13">
-        <f>G15+H15</f>
-        <v>383.840481143403</v>
-      </c>
-      <c r="M15" s="13">
-        <f>G15+2*H15</f>
-        <v>506.880962286806</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11">
+    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10">
         <v>484</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>360</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>345</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>202</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>647</v>
       </c>
-      <c r="G16" s="13">
-        <f>AVERAGE(B16:F16)</f>
-        <v>407.6</v>
-      </c>
-      <c r="H16" s="13">
-        <f>STDEVP(B16:F16)</f>
-        <v>149.402275752413</v>
-      </c>
-      <c r="I16" s="13">
-        <f>STANDARDIZE(0,G16,H16)</f>
-        <v>-2.72820476091989</v>
-      </c>
-      <c r="J16" s="13">
-        <f>G16-2*H16</f>
-        <v>108.795448495174</v>
-      </c>
-      <c r="K16" s="13">
-        <f>G16-H16</f>
-        <v>258.197724247587</v>
-      </c>
-      <c r="L16" s="13">
-        <f>G16+H16</f>
-        <v>557.002275752413</v>
-      </c>
-      <c r="M16" s="13">
-        <f>G16+2*H16</f>
-        <v>706.404551504826</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11">
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10">
         <v>309</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>305</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>443</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>408</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>376</v>
       </c>
-      <c r="G17" s="13">
-        <f>AVERAGE(B17:F17)</f>
-        <v>368.2</v>
-      </c>
-      <c r="H17" s="13">
-        <f>STDEVP(B17:F17)</f>
-        <v>54.2932776686028</v>
-      </c>
-      <c r="I17" s="13">
-        <f>STANDARDIZE(0,G17,H17)</f>
-        <v>-6.78168671722919</v>
-      </c>
-      <c r="J17" s="13">
-        <f>G17-2*H17</f>
-        <v>259.613444662794</v>
-      </c>
-      <c r="K17" s="13">
-        <f>G17-H17</f>
-        <v>313.906722331397</v>
-      </c>
-      <c r="L17" s="13">
-        <f>G17+H17</f>
-        <v>422.493277668603</v>
-      </c>
-      <c r="M17" s="13">
-        <f>G17+2*H17</f>
-        <v>476.786555337206</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="G17" s="12">
+        <f>AVERAGE(B14:F17)</f>
+        <v>376</v>
+      </c>
+      <c r="H17" s="12">
+        <f>STDEVP(B14:F17)</f>
+        <v>143.77030291405802</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.6152827974826107</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" ref="J14:J17" si="7">G17-2*H17</f>
+        <v>88.459394171883957</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" ref="K14:K17" si="8">G17-H17</f>
+        <v>232.22969708594198</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L14:L17" si="9">G17+H17</f>
+        <v>519.77030291405799</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" ref="M14:M17" si="10">G17+2*H17</f>
+        <v>663.54060582811599</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11">
         <f>SUM(B3:F17)</f>
         <v>25681</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f>AVERAGE(B3:F17)</f>
-        <v>342.413333333333</v>
-      </c>
-      <c r="H18" s="13">
+        <v>342.41333333333336</v>
+      </c>
+      <c r="H18" s="12">
         <f>STDEVP(B3:F17)</f>
-        <v>135.435799632971</v>
-      </c>
-      <c r="I18" s="13">
-        <f>STANDARDIZE(0,G18,H18)</f>
-        <v>-2.52823355612968</v>
-      </c>
-      <c r="J18" s="13">
-        <f>G18-2*H18</f>
-        <v>71.541734067391</v>
-      </c>
-      <c r="K18" s="13">
-        <f>G18-H18</f>
-        <v>206.977533700362</v>
-      </c>
-      <c r="L18" s="13">
-        <f>G18+H18</f>
-        <v>477.849132966304</v>
-      </c>
-      <c r="M18" s="13">
-        <f>G18+2*H18</f>
-        <v>613.284932599275</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+        <v>135.43579963297083</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.5282335561296851</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>71.541734067391701</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
+        <v>206.97753370036253</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="5"/>
+        <v>477.84913296630418</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="6"/>
+        <v>613.28493259927495</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
